--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tabtoy\v2\example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C778D-F832-4E47-B6F2-A6DE2F04721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14835"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -203,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -639,18 +645,16 @@
   <si>
     <t>攻击值</t>
   </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,150 +681,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -831,8 +691,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,194 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1055,255 +743,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,85 +768,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1799,19 +1210,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
@@ -1823,7 +1234,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1911,199 +1322,242 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4"/>
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>0.6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="2">
+      <c r="F6" s="4"/>
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>101</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>0.7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:10">
-      <c r="A8" s="2">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="J10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
@@ -2112,12 +1566,12 @@
     <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +1597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -2169,7 +1623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +1633,6 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +1643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +1657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +1671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2233,25 +1686,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tabtoy\v2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C778D-F832-4E47-B6F2-A6DE2F04721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B3C163-EF48-433A-A14B-EAAABFE10B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tabtoy\v2\example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C4DC8-E95F-42CB-A4F5-E261FFC59492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14835"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -203,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -639,18 +645,16 @@
   <si>
     <t>攻击值</t>
   </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,150 +681,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -831,8 +691,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,194 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1055,255 +743,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,85 +768,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1799,19 +1210,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
@@ -1823,7 +1234,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1911,199 +1322,242 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4"/>
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>0.6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="2">
+      <c r="F6" s="4"/>
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>101</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>0.7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:10">
-      <c r="A8" s="2">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="J10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
@@ -2112,12 +1566,12 @@
     <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +1597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -2169,7 +1623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +1633,6 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +1643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +1657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +1671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2233,25 +1686,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tabtoy\v2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C4DC8-E95F-42CB-A4F5-E261FFC59492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C83A4-724F-4A36-8CEA-719B1DEA9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-  </si>
-  <si>
-    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
   </si>
   <si>
     <t>Default: "100"</t>
@@ -649,12 +646,36 @@
     <t>cs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>TestJson</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"b":"11"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":10}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +726,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -749,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +805,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1231,10 +1272,11 @@
     <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
     <col min="11" max="13" width="21.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="43.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="23.25" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1319,11 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1321,97 +1366,104 @@
       <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4"/>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -1420,30 +1472,33 @@
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
+      <c r="O5" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4">
         <v>0.6</v>
@@ -1453,30 +1508,33 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>44</v>
+      <c r="O6" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>0.8</v>
@@ -1489,55 +1547,60 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
+      <c r="O7" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
         <v>0.7</v>
       </c>
       <c r="F8" s="4"/>
       <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1568,59 +1631,59 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1628,19 +1691,19 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1648,13 +1711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1662,13 +1725,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1676,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
